--- a/data/original_paper_data.xlsx
+++ b/data/original_paper_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwb1j\OneDrive\Documents\GitHub\ArClOTs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7A9F21-764E-4C5B-9B0E-F5FDEE316298}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DAD19D-0EEF-4E0D-ACA1-4988D082D6F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="815" yWindow="-109" windowWidth="25377" windowHeight="14889" xr2:uid="{2C0A334A-B988-473C-A565-C41D31DD3C5B}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>CC(C)CP(CC(C)C)CC(C)C</t>
   </si>
   <si>
-    <t>[][Fe][].c1(P(C2CCCCC2)C3CCCCC3)cccc1.c4(P(C5CCCCC5)C6CCCCC6)cccc4</t>
-  </si>
-  <si>
     <t>Bis(dicyclohexylphosphino)ferrocene</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>CP(C)C</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)P([C-]2C=CC=C2)C3=CC=CC=C3.C1=CC=C(C=C1)P([C-]2C=CC=C2)C3=CC=CC=C3.[Fe+2]</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -628,10 +628,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>99</v>
@@ -645,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>1.8</v>
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
         <v>0.15873015873015872</v>

--- a/data/original_paper_data.xlsx
+++ b/data/original_paper_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwb1j\OneDrive\Documents\GitHub\ArClOTs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DAD19D-0EEF-4E0D-ACA1-4988D082D6F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DCC8D5-C366-4EE7-AAF2-2BE7EAEA48DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="815" yWindow="-109" windowWidth="25377" windowHeight="14889" xr2:uid="{2C0A334A-B988-473C-A565-C41D31DD3C5B}"/>
+    <workbookView xWindow="-26192" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{2C0A334A-B988-473C-A565-C41D31DD3C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/data/original_paper_data.xlsx
+++ b/data/original_paper_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwb1j\OneDrive\Documents\GitHub\ArClOTs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DCC8D5-C366-4EE7-AAF2-2BE7EAEA48DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40FA191-27DB-4C6C-A2E0-8B61198EEF20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26192" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{2C0A334A-B988-473C-A565-C41D31DD3C5B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ligand_smiles</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>C1=CC=C(C=C1)P([C-]2C=CC=C2)C3=CC=CC=C3.C1=CC=C(C=C1)P([C-]2C=CC=C2)C3=CC=CC=C3.[Fe+2]</t>
+  </si>
+  <si>
+    <t>ln_selectivity</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25128E60-155C-4048-A2C5-5482897B1E1E}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -483,7 +486,7 @@
     <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -496,8 +499,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,8 +516,12 @@
       <c r="D2" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>LN(D2)</f>
+        <v>4.5951198501345898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -524,8 +534,12 @@
       <c r="D3" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">LN(D3)</f>
+        <v>4.5951198501345898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -538,8 +552,12 @@
       <c r="D4" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.5951198501345898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -552,8 +570,12 @@
       <c r="D5" s="1">
         <v>0.17543859649122806</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-1.7404661748405046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -566,8 +588,12 @@
       <c r="D6" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.78845736036427028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -580,8 +606,12 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -594,8 +624,12 @@
       <c r="D8" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.40546510810816438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -608,8 +642,12 @@
       <c r="D9" s="1">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.5310179804324935E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -622,8 +660,12 @@
       <c r="D10" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.0647107369924282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -636,8 +678,12 @@
       <c r="D11" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4.5951198501345898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -650,8 +696,12 @@
       <c r="D12" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.58778666490211906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -663,6 +713,10 @@
       </c>
       <c r="D13" s="1">
         <v>0.15873015873015872</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-1.8405496333974871</v>
       </c>
     </row>
   </sheetData>

--- a/data/original_paper_data.xlsx
+++ b/data/original_paper_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwb1j\OneDrive\Documents\GitHub\ArClOTs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40FA191-27DB-4C6C-A2E0-8B61198EEF20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF76891-3FC0-4969-ADA7-CD8CCA2663F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26192" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{2C0A334A-B988-473C-A565-C41D31DD3C5B}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
